--- a/BMSHPMS/wwwroot/ExcelTemplate/Longevity_4Seat_SmallRedBox_A4.xlsx
+++ b/BMSHPMS/wwwroot/ExcelTemplate/Longevity_4Seat_SmallRedBox_A4.xlsx
@@ -1,40 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fei\Desktop\表格樣本\延生\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fei\Desktop\表格樣本\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D890B8B6-42B6-478D-9F63-A124AED2A570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F454E523-95CA-43B2-9D65-6C4AF1C37CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N312001-4 (2)" sheetId="16" r:id="rId1"/>
-    <sheet name="增福延壽" sheetId="13" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
-  <si>
-    <t>增福延壽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>{{Name1}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,11 +57,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="&quot;N31&quot;0000"/>
+    <numFmt numFmtId="176" formatCode="&quot;N31&quot;0000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -106,22 +92,10 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="32"/>
-      <name val="全真顏體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <b/>
       <sz val="36"/>
       <name val="標楷體"/>
       <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="40"/>
-      <name val="全真顏體"/>
-      <family val="3"/>
       <charset val="136"/>
     </font>
     <font>
@@ -165,7 +139,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -182,37 +156,31 @@
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="distributed" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="distributed" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="distributed" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed" textRotation="255"/>
     </xf>
   </cellXfs>
@@ -523,268 +491,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" activeCellId="3" sqref="Q9:T9 L9:O9 G9:J9 B9:E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="0.875" customWidth="1"/>
-    <col min="2" max="2" width="5.5" customWidth="1"/>
-    <col min="3" max="4" width="2.625" customWidth="1"/>
-    <col min="5" max="5" width="5.5" customWidth="1"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
-    <col min="7" max="7" width="5.5" customWidth="1"/>
-    <col min="8" max="9" width="2.625" customWidth="1"/>
-    <col min="10" max="10" width="5.5" customWidth="1"/>
-    <col min="11" max="11" width="17.5" customWidth="1"/>
-    <col min="12" max="12" width="5.5" customWidth="1"/>
-    <col min="13" max="14" width="2.625" customWidth="1"/>
-    <col min="15" max="15" width="5.5" customWidth="1"/>
-    <col min="16" max="16" width="17.875" customWidth="1"/>
-    <col min="17" max="17" width="5.5" customWidth="1"/>
-    <col min="18" max="19" width="2.625" customWidth="1"/>
-    <col min="20" max="20" width="5.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" ht="90.6" customHeight="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" ht="51" customHeight="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-    </row>
-    <row r="3" spans="1:20" ht="51" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-    </row>
-    <row r="4" spans="1:20" ht="51" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-    </row>
-    <row r="5" spans="1:20" ht="51" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-    </row>
-    <row r="6" spans="1:20" ht="51" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-    </row>
-    <row r="7" spans="1:20" ht="18.95" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-    </row>
-    <row r="8" spans="1:20" ht="17.25" customHeight="1"/>
-    <row r="9" spans="1:20" ht="55.5" customHeight="1">
-      <c r="B9" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-    </row>
-    <row r="10" spans="1:20" ht="26.25" customHeight="1"/>
-    <row r="14" spans="1:20">
-      <c r="I14" s="16"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="I15" s="16"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="I16" s="16"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="9:10">
-      <c r="I17" s="16"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="9:10">
-      <c r="I18" s="16"/>
-      <c r="J18" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="B2:E6"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="L2:O6"/>
-    <mergeCell ref="Q2:T6"/>
-    <mergeCell ref="G2:J6"/>
-    <mergeCell ref="I14:I18"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="1.0629921259842521" right="0.35433070866141736" top="1.9685039370078741" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T18"/>
-  <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2:T6"/>
     </sheetView>
   </sheetViews>
@@ -819,10 +529,10 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -831,128 +541,128 @@
     </row>
     <row r="2" spans="1:20" ht="51" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="15" t="s">
-        <v>0</v>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="14" t="s">
+        <v>1</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="15" t="s">
-        <v>0</v>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="14" t="s">
+        <v>2</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="15" t="s">
-        <v>0</v>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="14" t="s">
+        <v>3</v>
       </c>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
     </row>
     <row r="3" spans="1:20" ht="51" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" ht="51" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
     </row>
     <row r="5" spans="1:20" ht="51" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
     </row>
     <row r="6" spans="1:20" ht="51" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
     </row>
     <row r="7" spans="1:20" ht="18.95" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
       <c r="H7" s="4"/>
@@ -971,58 +681,44 @@
     </row>
     <row r="8" spans="1:20" ht="17.25" customHeight="1"/>
     <row r="9" spans="1:20" ht="55.5" customHeight="1">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-    </row>
-    <row r="10" spans="1:20" ht="26.25" customHeight="1"/>
-    <row r="14" spans="1:20">
-      <c r="I14" s="16"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="I15" s="16"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="I16" s="16"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="9:10">
-      <c r="I17" s="16"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="9:10">
-      <c r="I18" s="16"/>
-      <c r="J18" s="5"/>
+      <c r="B9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="I14:I18"/>
+  <mergeCells count="8">
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="G9:J9"/>
+    <mergeCell ref="B2:E6"/>
     <mergeCell ref="L9:O9"/>
     <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="B2:E6"/>
-    <mergeCell ref="G2:J6"/>
     <mergeCell ref="L2:O6"/>
     <mergeCell ref="Q2:T6"/>
+    <mergeCell ref="G2:J6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1.0629921259842521" right="0.35433070866141736" top="1.9685039370078741" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
